--- a/Metrics/SENSOR_COMBINATIONS_METRICS.xlsx
+++ b/Metrics/SENSOR_COMBINATIONS_METRICS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76897a9c55b45525/University/Assignments/EPO/EPO4/BioSensing/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_28AB3974DAC43660E19867F2D46152C9C4076A6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B986188-19BA-4C74-917B-A454BDC63DEA}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_28AB3974DAC43660E19867F2D46152C9C4076A6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB0536D-16F3-4FBA-91E7-10A1831B6A06}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="588" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -220,6 +226,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +675,7 @@
       <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
